--- a/boogie_list.xlsx
+++ b/boogie_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailstsinghuaeducn-my.sharepoint.com/personal/shiw20_mails_tsinghua_edu_cn/Documents/Sundries/ACG/Boogiepop/boogiepop整理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiwen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{625FE3E4-BEA9-CF4D-9149-DAF2BB620146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95604836-74DC-7C43-8979-F936B5F8932D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358FA2DA-C033-5745-9711-BCA450D4EF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{65FE624C-D532-8146-BDEE-D6DA4372A68B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="114">
   <si>
     <t>vol</t>
   </si>
@@ -259,36 +259,15 @@
     <t>[🔗](https://www.lightnovel.us/detail/1120214)</t>
   </si>
   <si>
-    <t>[🔗](https://www.pixiv.net/novel/show.php?id=19863281)</t>
-  </si>
-  <si>
     <t>[🔗](https://www.lightnovel.us/series/1968)</t>
   </si>
   <si>
-    <t>[🔗](https://www.pixiv.net/novel/show.php?id=19863258)</t>
-  </si>
-  <si>
-    <t>[🔗](https://www.pixiv.net/novel/show.php?id=19863247)</t>
-  </si>
-  <si>
-    <t>[🔗](https://www.pixiv.net/novel/show.php?id=19863207)</t>
-  </si>
-  <si>
-    <t>[🔗](https://www.pixiv.net/novel/show.php?id=19863193)</t>
-  </si>
-  <si>
-    <t>[🔗](https://www.pixiv.net/novel/show.php?id=19863114)</t>
-  </si>
-  <si>
     <t>[🔗](https://www.lightnovel.us/detail/1121361)</t>
   </si>
   <si>
     <t>[🔗](https://www.lightnovel.us/series/1597)</t>
   </si>
   <si>
-    <t>[🔗](https://www.pixiv.net/novel/show.php?id=19862966)</t>
-  </si>
-  <si>
     <t>[🔗](https://www.lightnovel.us/series/2386)</t>
   </si>
   <si>
@@ -356,13 +335,46 @@
   </si>
   <si>
     <t>edlina</t>
+  </si>
+  <si>
+    <t>🔗</t>
+  </si>
+  <si>
+    <t>Lekvwa@blogspot</t>
+  </si>
+  <si>
+    <t>（epub）🔗</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/bd-15.html)</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/blog-post_768.html)</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/blog-post_05.html)</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/bd-18.html)</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/bd-19.html)</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/bd-20.html)</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/blog-post.html)</t>
+  </si>
+  <si>
+    <t>[🔗](https://lekvwa.blogspot.com/2023/08/bd-22.html)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,6 +400,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.8"/>
+      <color theme="1"/>
+      <name val="LXGWWenKai-Regular"/>
+    </font>
+    <font>
+      <sz val="10.8"/>
+      <color theme="1"/>
+      <name val="LXGWWenKai-Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -406,16 +444,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,22 +778,22 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="51.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="52.6640625" customWidth="1"/>
     <col min="8" max="8" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +807,7 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>51</v>
@@ -776,7 +819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -790,7 +833,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>52</v>
@@ -802,7 +845,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -816,7 +859,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
@@ -826,7 +869,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -837,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>52</v>
@@ -850,7 +893,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -864,7 +907,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
@@ -873,10 +916,10 @@
         <v>67</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -890,7 +933,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>52</v>
@@ -899,10 +942,10 @@
         <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -916,7 +959,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>52</v>
@@ -925,10 +968,10 @@
         <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -942,7 +985,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>52</v>
@@ -951,10 +994,10 @@
         <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -968,7 +1011,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>56</v>
@@ -977,10 +1020,10 @@
         <v>71</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -988,23 +1031,23 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1018,7 +1061,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -1027,10 +1070,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1044,22 +1087,22 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -1068,7 +1111,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
@@ -1078,7 +1121,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1092,7 +1135,7 @@
         <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
@@ -1102,7 +1145,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1116,7 +1159,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>52</v>
@@ -1126,7 +1169,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1137,20 +1180,20 @@
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1161,20 +1204,20 @@
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,20 +1228,20 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1209,44 +1252,44 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1254,23 +1297,23 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1278,23 +1321,23 @@
         <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1305,20 +1348,20 @@
         <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1329,44 +1372,44 @@
         <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1380,43 +1423,43 @@
         <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -1430,30 +1473,30 @@
         <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>48</v>
@@ -1462,7 +1505,7 @@
         <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -1474,12 +1517,767 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D8BFA6-26EE-2E4B-A9F9-E10F673C210D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="E29" sqref="E2:E29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.lightnovel.us/detail/193981" xr:uid="{56E5041F-85EB-D843-86C4-4CA916C21BDD}"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://obsolete.lightnovel.us/thread-193981-1-1.html" xr:uid="{2A6EAF38-D8D8-0240-B5EB-7EC2C917CC85}"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://www.lightnovel.us/detail/195259" xr:uid="{510A7C5E-A8DB-4443-AB0B-D1C41876A1F1}"/>
+    <hyperlink ref="G4" r:id="rId4" display="https://www.lightnovel.us/detail/947747" xr:uid="{A2B33A9D-ECEE-1645-BA21-0D719BE06BF0}"/>
+    <hyperlink ref="G5" r:id="rId5" display="https://www.lightnovel.us/detail/950588" xr:uid="{6596B2A6-1E7D-9A48-AAEC-813CF053EB3F}"/>
+    <hyperlink ref="H5" r:id="rId6" display="https://obsolete.lightnovel.us/thread-950588-1-1.html" xr:uid="{8F59092C-B422-E24E-A85D-175120F05D76}"/>
+    <hyperlink ref="G6" r:id="rId7" display="https://www.lightnovel.us/detail/952700" xr:uid="{D1BAB166-3984-B346-B156-5F29964C3CD4}"/>
+    <hyperlink ref="H6" r:id="rId8" display="https://obsolete.lightnovel.us/thread-952700-1-1.html" xr:uid="{A25A8564-7D13-6748-9C44-F91BF0930552}"/>
+    <hyperlink ref="G7" r:id="rId9" display="https://www.lightnovel.us/detail/957683" xr:uid="{5AAD510D-B534-3945-827E-FA54AC785F05}"/>
+    <hyperlink ref="H7" r:id="rId10" display="https://obsolete.lightnovel.us/thread-957683-1-1.html" xr:uid="{1DED4F15-A8DC-AA44-9217-4425037D4D5B}"/>
+    <hyperlink ref="G8" r:id="rId11" display="https://www.lightnovel.us/detail/979008" xr:uid="{813554B2-F199-AF49-BD71-713702A55EE1}"/>
+    <hyperlink ref="H8" r:id="rId12" display="https://obsolete.lightnovel.us/thread-979008-1-1.html" xr:uid="{036E39BB-371A-5548-907B-87194FE316DD}"/>
+    <hyperlink ref="G9" r:id="rId13" display="https://www.lightnovel.us/detail/1009633" xr:uid="{2D03A88A-BF2F-134B-BDDF-AAAFA4056635}"/>
+    <hyperlink ref="H9" r:id="rId14" display="https://obsolete.lightnovel.us/thread-1009633-1-1.html" xr:uid="{B87A4B64-96D9-504A-BCF6-8F7AA28B4E9D}"/>
+    <hyperlink ref="G11" r:id="rId15" display="https://www.lightnovel.us/detail/1014632" xr:uid="{E054A329-3285-D849-81B0-93813546AA18}"/>
+    <hyperlink ref="H11" r:id="rId16" display="https://obsolete.lightnovel.us/thread-1014632-1-1.html" xr:uid="{6F2F51FA-AC94-DD46-8A88-55FEF7B5FBCB}"/>
+    <hyperlink ref="G12" r:id="rId17" display="https://www.lightnovel.us/detail/1078471" xr:uid="{2E800179-8D3E-6748-86D7-8DE9105A1FF7}"/>
+    <hyperlink ref="G13" r:id="rId18" display="https://www.lightnovel.us/detail/1091497" xr:uid="{129E8C40-FD24-BB43-8A6C-39AE357C3CAB}"/>
+    <hyperlink ref="G14" r:id="rId19" display="https://www.lightnovel.us/detail/1100247" xr:uid="{8F4BE38B-C0B6-0C4A-864E-463CF621A18A}"/>
+    <hyperlink ref="G15" r:id="rId20" display="https://www.lightnovel.us/detail/1120214" xr:uid="{69F40C21-295B-2C42-94D0-C11D47F5141A}"/>
+    <hyperlink ref="G17" r:id="rId21" display="https://lekvwa.blogspot.com/2023/08/bd-15.html" xr:uid="{A44ADE35-4E06-7D4C-80D7-D98AC91DE063}"/>
+    <hyperlink ref="G18" r:id="rId22" display="https://lekvwa.blogspot.com/2023/08/blog-post_768.html" xr:uid="{47D4E186-4D2D-F340-8941-B0A201BEA2B5}"/>
+    <hyperlink ref="G19" r:id="rId23" display="https://www.lightnovel.us/series/1968" xr:uid="{9C6AC5C3-D5A6-EB44-BEFC-7AF7B8AC698B}"/>
+    <hyperlink ref="G20" r:id="rId24" display="https://lekvwa.blogspot.com/2023/08/blog-post_05.html" xr:uid="{3EC60187-BC47-0246-AED1-070A96F155EA}"/>
+    <hyperlink ref="G21" r:id="rId25" display="https://lekvwa.blogspot.com/2023/08/bd-18.html" xr:uid="{49A6E612-BFF6-F442-9172-FE022120B2CF}"/>
+    <hyperlink ref="G22" r:id="rId26" display="https://lekvwa.blogspot.com/2023/08/bd-19.html" xr:uid="{AF97B487-DEC6-7447-9944-38532B3AE8DC}"/>
+    <hyperlink ref="G23" r:id="rId27" display="https://lekvwa.blogspot.com/2023/08/bd-20.html" xr:uid="{EE150EF2-DE9F-0040-A0CC-83F2A2FA5C1D}"/>
+    <hyperlink ref="G24" r:id="rId28" display="https://lekvwa.blogspot.com/2023/08/blog-post.html" xr:uid="{ECA7CB1B-0A6E-D048-96E8-26CAC081F374}"/>
+    <hyperlink ref="G25" r:id="rId29" display="https://www.lightnovel.us/detail/1121361" xr:uid="{53198D4E-B527-A147-81C0-7679ACD02D6A}"/>
+    <hyperlink ref="G26" r:id="rId30" display="https://www.lightnovel.us/series/1597" xr:uid="{50AEE936-BFDD-184B-B35C-520BE4159C78}"/>
+    <hyperlink ref="H26" r:id="rId31" display="https://www.lightnovel.us/detail/1105477" xr:uid="{EC90B6D4-ECAF-D546-81B5-9A1ED6F030A6}"/>
+    <hyperlink ref="G27" r:id="rId32" display="https://lekvwa.blogspot.com/2023/08/bd-22.html" xr:uid="{BB947528-6C9E-E348-9AB0-A93A24653A20}"/>
+    <hyperlink ref="G28" r:id="rId33" display="https://www.lightnovel.us/series/2386" xr:uid="{D02C1174-FE4A-9640-9B50-8695D14CFD1D}"/>
+    <hyperlink ref="H28" r:id="rId34" display="https://www.lightnovel.us/detail/1105507" xr:uid="{A2E393F9-6A05-CB41-9385-40DEDC8270E4}"/>
+    <hyperlink ref="G29" r:id="rId35" display="https://www.pixiv.net/novel/show.php?id=19862972" xr:uid="{EF85473D-FF43-D442-8DDB-78E9D0949B02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>